--- a/observations/orbit_plans/mtp079/nomad_mtp079_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp079/nomad_mtp079_plan_generic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp079\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F4794-3352-4744-AD4E-AF99A465E562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7EE9C-6BB2-43CC-8AA2-E9D47C29407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="525">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1599,6 +1599,15 @@
   </si>
   <si>
     <t xml:space="preserve">&amp;LST=8.6hrs; &amp;Angle=47; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #12</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #54</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #14</t>
   </si>
 </sst>
 </file>
@@ -1652,12 +1661,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1962,17 +1970,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E320" sqref="E320"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="19.109375" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14</v>
       </c>
@@ -2027,7 +2036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -2084,7 +2093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2124,7 +2133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>47</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2256,7 +2265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2302,7 +2311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2316,7 +2325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2348,7 +2357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2380,7 +2389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2486,7 +2495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2500,7 +2509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2529,7 +2538,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>47</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2578,7 +2587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2595,7 +2604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>7</v>
       </c>
@@ -2652,7 +2661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2675,7 +2684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2689,7 +2698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2712,7 +2721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2761,7 +2770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -2775,7 +2784,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -2821,7 +2830,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2853,7 +2862,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2913,7 +2922,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2936,7 +2945,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2967,7 +2976,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2999,7 +3008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3028,7 +3037,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3045,7 +3054,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14</v>
       </c>
@@ -3059,7 +3068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3091,7 +3100,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -3105,7 +3114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3137,7 +3146,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3200,7 +3209,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
@@ -3214,7 +3223,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
@@ -3228,7 +3237,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3251,7 +3260,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14</v>
       </c>
@@ -3262,7 +3271,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>47</v>
       </c>
@@ -3279,7 +3288,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3328,7 +3337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3365,7 +3374,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3393,7 +3402,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3416,7 +3425,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>14</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3479,7 +3488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3516,7 +3525,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -3530,7 +3539,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3576,7 +3585,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3593,7 +3602,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>47</v>
       </c>
@@ -3630,7 +3639,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
@@ -3644,7 +3653,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3681,7 +3690,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3727,7 +3736,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>14</v>
       </c>
@@ -3741,7 +3750,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3764,7 +3773,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>14</v>
       </c>
@@ -3778,7 +3787,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3789,7 +3798,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3800,7 +3809,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3814,7 +3823,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
@@ -3828,7 +3837,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3851,7 +3860,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3874,7 +3883,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -3888,7 +3897,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3914,7 +3923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14</v>
       </c>
@@ -3928,7 +3937,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3974,7 +3983,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14</v>
       </c>
@@ -3988,7 +3997,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4011,7 +4020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
@@ -4028,7 +4037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4048,7 +4057,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>14</v>
       </c>
@@ -4059,7 +4068,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>14</v>
       </c>
@@ -4073,7 +4082,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4096,7 +4105,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14</v>
       </c>
@@ -4133,7 +4142,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4156,7 +4165,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>14</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>14</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4230,7 +4239,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4256,7 +4265,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>14</v>
       </c>
@@ -4267,21 +4276,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
         <v>8</v>
+      </c>
+      <c r="K113" t="s">
+        <v>27</v>
       </c>
       <c r="L113" t="s">
         <v>194</v>
       </c>
       <c r="M113" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4304,7 +4316,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14</v>
       </c>
@@ -4318,7 +4330,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4341,7 +4353,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>14</v>
       </c>
@@ -4355,7 +4367,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4381,7 +4393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14</v>
       </c>
@@ -4392,7 +4404,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14</v>
       </c>
@@ -4403,7 +4415,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4426,7 +4438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
       </c>
@@ -4440,7 +4452,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4463,7 +4475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4486,7 +4498,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -4503,7 +4515,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4526,7 +4538,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4540,7 +4552,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4563,7 +4575,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>14</v>
       </c>
@@ -4577,7 +4589,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4600,7 +4612,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4626,7 +4638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -4640,7 +4652,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4663,7 +4675,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>14</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4700,7 +4712,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>14</v>
       </c>
@@ -4714,7 +4726,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4737,7 +4749,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4760,7 +4772,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4774,7 +4786,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4800,7 +4812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4814,7 +4826,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4837,7 +4849,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14</v>
       </c>
@@ -4874,7 +4886,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4897,7 +4909,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>14</v>
       </c>
@@ -4911,7 +4923,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4934,15 +4946,15 @@
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>15</v>
+        <v>522</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>15</v>
+        <v>522</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -4957,7 +4969,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>14</v>
       </c>
@@ -4971,7 +4983,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4997,7 +5009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>14</v>
       </c>
@@ -5011,7 +5023,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5034,7 +5046,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>14</v>
       </c>
@@ -5048,7 +5060,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5071,7 +5083,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>14</v>
       </c>
@@ -5085,7 +5097,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5108,7 +5120,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>14</v>
       </c>
@@ -5122,7 +5134,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5148,7 +5160,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>14</v>
       </c>
@@ -5162,7 +5174,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5185,7 +5197,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5199,7 +5211,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5222,7 +5234,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5245,7 +5257,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>14</v>
       </c>
@@ -5259,7 +5271,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5282,7 +5294,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>14</v>
       </c>
@@ -5296,7 +5308,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5322,7 +5334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5345,7 +5357,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>14</v>
       </c>
@@ -5359,7 +5371,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5379,7 +5391,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5390,7 +5402,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5401,7 +5413,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5415,7 +5427,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14</v>
       </c>
@@ -5426,7 +5438,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>14</v>
       </c>
@@ -5437,7 +5449,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -5460,7 +5472,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -5483,7 +5495,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>14</v>
       </c>
@@ -5497,7 +5509,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -5520,7 +5532,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>14</v>
       </c>
@@ -5534,7 +5546,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5560,7 +5572,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>14</v>
       </c>
@@ -5574,7 +5586,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5597,7 +5609,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -5620,7 +5632,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3</v>
       </c>
@@ -5637,15 +5649,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>16</v>
+        <v>523</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>16</v>
+        <v>523</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>6</v>
@@ -5660,7 +5672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>14</v>
       </c>
@@ -5674,7 +5686,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -5697,7 +5709,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>14</v>
       </c>
@@ -5708,7 +5720,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>14</v>
       </c>
@@ -5722,7 +5734,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5745,15 +5757,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>15</v>
+        <v>524</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>15</v>
+        <v>524</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -5768,7 +5780,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>14</v>
       </c>
@@ -5782,15 +5794,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>15</v>
+        <v>522</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>15</v>
+        <v>522</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
@@ -5808,7 +5820,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>14</v>
       </c>
@@ -5822,7 +5834,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5845,7 +5857,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5868,7 +5880,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>14</v>
       </c>
@@ -5882,7 +5894,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5905,7 +5917,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>14</v>
       </c>
@@ -5919,7 +5931,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5942,7 +5954,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5965,7 +5977,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>14</v>
       </c>
@@ -5979,7 +5991,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1</v>
       </c>
@@ -5996,7 +6008,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>8</v>
@@ -6010,7 +6022,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>14</v>
       </c>
@@ -6024,7 +6036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -6047,7 +6059,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>14</v>
       </c>
@@ -6061,7 +6073,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6084,7 +6096,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>14</v>
       </c>
@@ -6121,7 +6133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>14</v>
       </c>
@@ -6161,7 +6173,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6184,7 +6196,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>14</v>
       </c>
@@ -6198,7 +6210,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -6221,7 +6233,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -6244,7 +6256,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>14</v>
       </c>
@@ -6258,7 +6270,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>14</v>
       </c>
@@ -6272,7 +6284,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -6295,7 +6307,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>14</v>
       </c>
@@ -6309,7 +6321,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -6335,7 +6347,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6358,7 +6370,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>14</v>
       </c>
@@ -6372,7 +6384,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -6395,7 +6407,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>14</v>
       </c>
@@ -6409,15 +6421,15 @@
         <v>355</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>16</v>
+        <v>523</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>16</v>
+        <v>523</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>6</v>
@@ -6429,7 +6441,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>47</v>
       </c>
@@ -6446,7 +6458,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -6469,7 +6481,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>14</v>
       </c>
@@ -6483,7 +6495,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>3</v>
       </c>
@@ -6500,7 +6512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6523,7 +6535,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>14</v>
       </c>
@@ -6534,7 +6546,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>14</v>
       </c>
@@ -6545,7 +6557,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -6577,7 +6589,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>14</v>
       </c>
@@ -6591,7 +6603,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -6605,10 +6617,10 @@
         <v>3</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>16</v>
+        <v>524</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>16</v>
+        <v>524</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>6</v>
@@ -6623,7 +6635,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -6655,7 +6667,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>14</v>
       </c>
@@ -6669,7 +6681,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14</v>
       </c>
@@ -6683,7 +6695,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>1</v>
       </c>
@@ -6706,7 +6718,7 @@
         <v>6</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>8</v>
@@ -6720,7 +6732,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14</v>
       </c>
@@ -6734,7 +6746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -6757,7 +6769,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14</v>
       </c>
@@ -6771,7 +6783,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -6785,10 +6797,10 @@
         <v>3</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>16</v>
+        <v>522</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>16</v>
+        <v>522</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>6</v>
@@ -6800,7 +6812,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14</v>
       </c>
@@ -6811,7 +6823,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -6843,7 +6855,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>14</v>
       </c>
@@ -6857,7 +6869,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -6889,7 +6901,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>3</v>
       </c>
@@ -6906,24 +6918,24 @@
         <v>387</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>15</v>
+        <v>523</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>15</v>
+        <v>523</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>16</v>
+        <v>524</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>16</v>
+        <v>524</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>6</v>
@@ -6935,7 +6947,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>47</v>
       </c>
@@ -6952,7 +6964,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -6984,7 +6996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>14</v>
       </c>
@@ -6998,7 +7010,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -7021,7 +7033,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>14</v>
       </c>
@@ -7035,7 +7047,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -7049,10 +7061,10 @@
         <v>3</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>16</v>
+        <v>522</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>16</v>
+        <v>522</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>6</v>
@@ -7067,7 +7079,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>14</v>
       </c>
@@ -7078,7 +7090,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7089,7 +7101,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>14</v>
       </c>
@@ -7103,7 +7115,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -7138,7 +7150,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>14</v>
       </c>
@@ -7152,7 +7164,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
@@ -7184,7 +7196,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>14</v>
       </c>
@@ -7195,7 +7207,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>47</v>
       </c>
@@ -7212,24 +7224,24 @@
         <v>88</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>15</v>
+        <v>523</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>15</v>
+        <v>523</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>16</v>
+        <v>524</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>16</v>
+        <v>524</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>6</v>
@@ -7244,7 +7256,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>14</v>
       </c>
@@ -7258,7 +7270,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -7290,7 +7302,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -7325,7 +7337,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>14</v>
       </c>
@@ -7339,7 +7351,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>14</v>
       </c>
@@ -7353,7 +7365,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1</v>
       </c>
@@ -7385,7 +7397,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>14</v>
       </c>
@@ -7399,7 +7411,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7431,7 +7443,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3</v>
       </c>
@@ -7448,7 +7460,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1</v>
       </c>
@@ -7480,7 +7492,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
@@ -7512,7 +7524,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>14</v>
       </c>
@@ -7526,7 +7538,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1</v>
       </c>
@@ -7558,7 +7570,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>14</v>
       </c>
@@ -7572,7 +7584,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1</v>
       </c>
@@ -7607,24 +7619,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>15</v>
+        <v>522</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>15</v>
+        <v>522</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>16</v>
+        <v>523</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>16</v>
+        <v>523</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>6</v>
@@ -7639,7 +7651,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>28</v>
       </c>
@@ -7653,7 +7665,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1</v>
       </c>
@@ -7676,7 +7688,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>14</v>
       </c>
@@ -7690,7 +7702,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1</v>
       </c>
@@ -7722,7 +7734,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1</v>
       </c>
@@ -7754,7 +7766,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>14</v>
       </c>
@@ -7768,7 +7780,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1</v>
       </c>
@@ -7800,7 +7812,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>14</v>
       </c>
@@ -7814,7 +7826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
@@ -7846,7 +7858,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>14</v>
       </c>
@@ -7860,7 +7872,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
@@ -7892,7 +7904,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1</v>
       </c>
@@ -7927,7 +7939,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>14</v>
       </c>
@@ -7941,15 +7953,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>15</v>
+        <v>524</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>15</v>
+        <v>524</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>3</v>
@@ -7973,7 +7985,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>14</v>
       </c>
@@ -7987,15 +7999,15 @@
         <v>460</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>15</v>
+        <v>522</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>15</v>
+        <v>522</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>3</v>
@@ -8019,7 +8031,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>14</v>
       </c>
@@ -8033,7 +8045,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1</v>
       </c>
@@ -8065,7 +8077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1</v>
       </c>
@@ -8097,7 +8109,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>3</v>
       </c>
@@ -8108,7 +8120,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>8</v>
@@ -8122,7 +8134,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8151,7 +8163,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>14</v>
       </c>
@@ -8162,7 +8174,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8176,7 +8188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8208,7 +8220,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1</v>
       </c>
@@ -8228,7 +8240,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>14</v>
       </c>
@@ -8239,7 +8251,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>14</v>
       </c>
@@ -8253,7 +8265,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1</v>
       </c>
@@ -8288,7 +8300,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>14</v>
       </c>
@@ -8302,7 +8314,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1</v>
       </c>
@@ -8334,7 +8346,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1</v>
       </c>
@@ -8366,7 +8378,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>14</v>
       </c>
@@ -8380,7 +8392,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>14</v>
       </c>
@@ -8394,7 +8406,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1</v>
       </c>
@@ -8426,7 +8438,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>14</v>
       </c>
@@ -8440,7 +8452,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1</v>
       </c>
@@ -8472,7 +8484,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>3</v>
       </c>
@@ -8489,7 +8501,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>14</v>
       </c>
@@ -8503,7 +8515,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1</v>
       </c>
@@ -8535,15 +8547,15 @@
         <v>491</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>15</v>
+        <v>523</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>15</v>
+        <v>523</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>3</v>
@@ -8567,7 +8579,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>14</v>
       </c>
@@ -8581,7 +8593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1</v>
       </c>
@@ -8613,7 +8625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>14</v>
       </c>
@@ -8627,7 +8639,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>14</v>
       </c>
@@ -8641,7 +8653,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>1</v>
       </c>
@@ -8664,7 +8676,7 @@
         <v>6</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>8</v>
@@ -8678,7 +8690,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>14</v>
       </c>
@@ -8692,15 +8704,15 @@
         <v>498</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>15</v>
+        <v>524</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>15</v>
+        <v>524</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>3</v>
@@ -8724,7 +8736,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
@@ -8747,7 +8759,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>14</v>
       </c>
@@ -8761,7 +8773,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>14</v>
       </c>
@@ -8775,7 +8787,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1</v>
       </c>
@@ -8807,7 +8819,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>14</v>
       </c>
@@ -8821,7 +8833,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1</v>
       </c>
@@ -8856,7 +8868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1</v>
       </c>
@@ -8888,7 +8900,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>14</v>
       </c>
@@ -8902,7 +8914,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>14</v>
       </c>
@@ -8913,7 +8925,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>14</v>
       </c>
@@ -8924,7 +8936,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1</v>
       </c>
@@ -8956,7 +8968,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>14</v>
       </c>
@@ -8970,7 +8982,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1</v>
       </c>
@@ -8993,7 +9005,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1</v>
       </c>
